--- a/Networks/Parte2/Excel/Parte2-Network13.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network13.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.6449246218993762</v>
+        <v>-0.4514317921401603</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5979794677604328</v>
+        <v>-0.7792597947380407</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9954154299192087</v>
+        <v>0.9497641650128565</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8300748661478474</v>
+        <v>-1.355450823862738</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7205903457106738</v>
+        <v>0.1605528397728489</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.64348275796122</v>
+        <v>0.3515043829056255</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9707588854615388</v>
+        <v>-1.096488982880605</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.01208176915817905</v>
+        <v>-0.3691835905611328</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.38411506186332</v>
+        <v>0.7186302102988767</v>
       </c>
       <c r="C3" t="n">
-        <v>0.276700893466314</v>
+        <v>0.247179417018035</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.462488356450335</v>
+        <v>-1.209618343029855</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4181654354155738</v>
+        <v>1.01223598979142</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network13.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network13.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4514317921401603</v>
+        <v>-0.7217969836267406</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7792597947380407</v>
+        <v>-0.578672443733654</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9497641650128565</v>
+        <v>0.340860819974193</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.355450823862738</v>
+        <v>0.8711035324500809</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1605528397728489</v>
+        <v>0.2337723897796488</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3515043829056255</v>
+        <v>-0.25820997514052</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.096488982880605</v>
+        <v>-1.350738518414303</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3691835905611328</v>
+        <v>-0.3001173235682472</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7186302102988767</v>
+        <v>0.5520842911472739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.247179417018035</v>
+        <v>0.2739620574653207</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.209618343029855</v>
+        <v>0.3296052199406059</v>
       </c>
       <c r="C4" t="n">
-        <v>1.01223598979142</v>
+        <v>0.4263540533725379</v>
       </c>
     </row>
   </sheetData>
